--- a/California/WaterAllocation/CAwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/California/WaterAllocation/CAwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\California\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EB336B-D5B7-4CFF-9E7F-640E9C01B118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F59DF4-3C88-4B97-A439-1E29AC42127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="335">
   <si>
     <t>Name</t>
   </si>
@@ -879,81 +879,18 @@
     <t>https://www.waterboards.ca.gov/</t>
   </si>
   <si>
-    <t>Detail information about every water rights record in the State Water Resources Control Board's "Electronic Water Rights Information Management System" (EWRIMS) database</t>
-  </si>
-  <si>
-    <t>https://data.ca.gov/dataset/water-rights</t>
-  </si>
-  <si>
-    <t>20230214 New data to work with, issue of court issued rights not the same as their estimated values on that eWIMS service.  These should be safer to use.</t>
-  </si>
-  <si>
-    <t>priority_date</t>
-  </si>
-  <si>
-    <t>primary_owner_name</t>
-  </si>
-  <si>
-    <t>huc_12_number</t>
-  </si>
-  <si>
-    <t>huc_8_number</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>location_method</t>
-  </si>
-  <si>
-    <t>application_number</t>
-  </si>
-  <si>
     <t>wrLIST</t>
   </si>
   <si>
-    <t>application_recd_date</t>
-  </si>
-  <si>
     <t>make sure this isn't going to cause of 3 type problems..</t>
   </si>
   <si>
-    <t>county</t>
-  </si>
-  <si>
-    <t>direct_div_season_end</t>
-  </si>
-  <si>
-    <t>direct_div_season_start</t>
-  </si>
-  <si>
-    <t>water_right_status</t>
-  </si>
-  <si>
-    <t>source_type</t>
-  </si>
-  <si>
-    <t>source_name</t>
-  </si>
-  <si>
-    <t>use_code</t>
-  </si>
-  <si>
     <t>The unique identifier for the dataset is "Application ID". The dataset provides one record per Application ID and all the existing associated data to that record.</t>
   </si>
   <si>
     <t>pod_id SHOULD be unique per site, but I see a lot of pod_id records that share lat &amp; long values.</t>
   </si>
   <si>
-    <t>use_population</t>
-  </si>
-  <si>
-    <t>use_net_acreage</t>
-  </si>
-  <si>
     <t>(blank)</t>
   </si>
   <si>
@@ -969,24 +906,9 @@
     <t>This SHOULD all be POD values.</t>
   </si>
   <si>
-    <t>pod_name</t>
-  </si>
-  <si>
-    <t>pod_id</t>
-  </si>
-  <si>
-    <t>Unspecified</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
-    <t>CAwr_WR + counter</t>
-  </si>
-  <si>
-    <t>CAwr_S + counter</t>
-  </si>
-  <si>
     <t>CAwr_WS + counter</t>
   </si>
   <si>
@@ -1017,15 +939,6 @@
     <t>CFS, AFY</t>
   </si>
   <si>
-    <t>use_direct_diversion_rate</t>
-  </si>
-  <si>
-    <t>be aware of units in 'use_direct_div_rate_units' field.</t>
-  </si>
-  <si>
-    <t>water_right_type + sub_type</t>
-  </si>
-  <si>
     <t>We've been advised to use 'use_direct_div_rate_unit',  where the 'face_value_amout' is a estimate done by hand.</t>
   </si>
   <si>
@@ -1038,61 +951,100 @@
     <t>POD Withdrawl data.</t>
   </si>
   <si>
-    <t>Aesthetic</t>
-  </si>
-  <si>
-    <t>Aquaculture</t>
-  </si>
-  <si>
-    <t>Domestic</t>
-  </si>
-  <si>
-    <t>Dust Control</t>
-  </si>
-  <si>
-    <t>Fire Protection</t>
-  </si>
-  <si>
-    <t>Fish and Wildlife Preservation and Enhancement</t>
-  </si>
-  <si>
-    <t>Frost Protection</t>
-  </si>
-  <si>
-    <t>Heat Control</t>
-  </si>
-  <si>
-    <t>Incidental Power</t>
-  </si>
-  <si>
-    <t>Industrial</t>
-  </si>
-  <si>
-    <t>Milling</t>
-  </si>
-  <si>
-    <t>Mining</t>
-  </si>
-  <si>
-    <t>Municipal</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Recreational</t>
-  </si>
-  <si>
-    <t>Snow Making</t>
-  </si>
-  <si>
-    <t>Stockwatering</t>
-  </si>
-  <si>
     <t>“Cross Group Not Valid” issues.  Will temporarily remove populationserved and IrrigatedAreas for now.</t>
+  </si>
+  <si>
+    <t>https://data.ca.gov/dataset/california-water-rights-points-of-diversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This list includes detail information about every Point of Diversion water rights record in the State Water Resources Control Board's "Electronic Water Rights Information Management System" (EWRIMS) database. </t>
+  </si>
+  <si>
+    <t>SOURCE_TYPE</t>
+  </si>
+  <si>
+    <t>ewrims_flat_file_pod</t>
+  </si>
+  <si>
+    <t>PRIMARY_OWNER_NAME</t>
+  </si>
+  <si>
+    <t>POD_ID</t>
+  </si>
+  <si>
+    <t>Questions:</t>
+  </si>
+  <si>
+    <t>POD_NAME</t>
+  </si>
+  <si>
+    <t>*might contain blanks</t>
+  </si>
+  <si>
+    <t>POD_TYPE</t>
+  </si>
+  <si>
+    <t>USE_DIRECT_DIVERSION_RATE</t>
+  </si>
+  <si>
+    <t>be ware of units in *DIRECT_DIV_RATE_UNIT*</t>
+  </si>
+  <si>
+    <t>COUNTY</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>LOCATION_METHOD</t>
+  </si>
+  <si>
+    <t>SOURCE_NAME</t>
+  </si>
+  <si>
+    <t>HUC_12_NUMBER</t>
+  </si>
+  <si>
+    <t>HUC_8_NUMBER</t>
+  </si>
+  <si>
+    <t>APPLICATION_NUMBER</t>
+  </si>
+  <si>
+    <t>WATER_RIGHT_STATUS</t>
+  </si>
+  <si>
+    <t>WATER_RIGHT_TYPE</t>
+  </si>
+  <si>
+    <t>PRIORITY_DATE</t>
+  </si>
+  <si>
+    <t>USE_CODE</t>
+  </si>
+  <si>
+    <t>DIRECT_DIV_SEASON_START</t>
+  </si>
+  <si>
+    <t>DIRECT_DIV_SEASON_END</t>
+  </si>
+  <si>
+    <t>USE_NET_ACREAGE</t>
+  </si>
+  <si>
+    <t>USE_POPULATION</t>
+  </si>
+  <si>
+    <t>add CAwr + counter to native field</t>
+  </si>
+  <si>
+    <t>APPLICATION_RECD_DATE</t>
+  </si>
+  <si>
+    <t>The native url they suggested we use is too long for our system.  Will temp fix and remove fo rnow.</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1054,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,6 +1274,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1839,7 +1798,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1904,12 +1863,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1961,9 +1914,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1973,9 +1923,6 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2000,18 +1947,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2053,9 +1988,6 @@
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2109,6 +2041,46 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2469,15 +2441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="65" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" style="57" customWidth="1"/>
     <col min="2" max="2" width="59.109375" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2486,104 +2458,112 @@
       <c r="A1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="71" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="72" t="s">
         <v>158</v>
       </c>
       <c r="B2" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="73" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="72" t="s">
         <v>262</v>
       </c>
       <c r="B3" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="73" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="72" t="s">
         <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>331</v>
+        <v>305</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="B5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="82"/>
+      <c r="B5" s="92" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="73"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="72" t="s">
         <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6" s="82"/>
+        <v>299</v>
+      </c>
+      <c r="C6" s="73"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="82"/>
+        <v>281</v>
+      </c>
+      <c r="C7" s="73"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C8" s="82"/>
+        <v>282</v>
+      </c>
+      <c r="C8" s="73"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C9" s="82"/>
+        <v>287</v>
+      </c>
+      <c r="C9" s="73"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="82"/>
+        <v>300</v>
+      </c>
+      <c r="C10" s="73"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>350</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="57" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{8671CEB5-820E-4131-B63B-4D9EEDBAB472}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2593,7 +2573,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2663,13 +2643,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2678,7 +2658,7 @@
       <c r="I3" s="17">
         <v>11</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="69" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2686,27 +2666,27 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>317</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+      <c r="C4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="77"/>
+      <c r="G4" s="94"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="69" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2723,18 +2703,18 @@
       <c r="D5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="E5" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="58"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="69" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2751,18 +2731,18 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="E6" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="56">
         <v>0.5</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="69" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2779,18 +2759,18 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
+      <c r="E7" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="78" t="s">
+      <c r="J7" s="69" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2807,18 +2787,18 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="E8" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" s="58"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="J8" s="78" t="s">
+      <c r="J8" s="69" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2835,16 +2815,16 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="E9" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="78" t="s">
+      <c r="J9" s="69" t="s">
         <v>267</v>
       </c>
     </row>
@@ -2861,18 +2841,18 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="E10" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="F10" s="58"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="69" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2889,18 +2869,18 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="83" t="s">
-        <v>321</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
+      <c r="E11" s="96" t="s">
+        <v>295</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="78" t="s">
+      <c r="J11" s="69" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2917,18 +2897,18 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
+      <c r="E12" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="78" t="s">
+      <c r="J12" s="69" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2949,7 +2929,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3019,16 +2999,16 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>16</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="69" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3036,27 +3016,27 @@
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+      <c r="C4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="69" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3073,7 +3053,7 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="85">
         <v>1</v>
       </c>
       <c r="F5" s="19"/>
@@ -3084,7 +3064,7 @@
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="69" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3101,7 +3081,7 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="85" t="s">
         <v>109</v>
       </c>
       <c r="F6" s="19"/>
@@ -3112,7 +3092,7 @@
       <c r="I6" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="69" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3129,7 +3109,7 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="85" t="s">
         <v>108</v>
       </c>
       <c r="F7" s="19"/>
@@ -3140,7 +3120,7 @@
       <c r="I7" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="78" t="s">
+      <c r="J7" s="69" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3157,8 +3137,8 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>324</v>
+      <c r="E8" s="85" t="s">
+        <v>298</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
@@ -3168,7 +3148,7 @@
       <c r="I8" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="78" t="s">
+      <c r="J8" s="69" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3185,8 +3165,8 @@
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>324</v>
+      <c r="E9" s="85" t="s">
+        <v>298</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
@@ -3196,7 +3176,7 @@
       <c r="I9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="78" t="s">
+      <c r="J9" s="69" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3213,7 +3193,7 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="85">
         <v>11</v>
       </c>
       <c r="F10" s="19"/>
@@ -3224,7 +3204,7 @@
       <c r="I10" s="17">
         <v>10</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="69" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3241,7 +3221,7 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="85" t="s">
         <v>110</v>
       </c>
       <c r="F11" s="19"/>
@@ -3252,7 +3232,7 @@
       <c r="I11" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="78" t="s">
+      <c r="J11" s="69" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3269,7 +3249,7 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="85" t="s">
         <v>142</v>
       </c>
       <c r="F12" s="19"/>
@@ -3280,7 +3260,7 @@
       <c r="I12" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="J12" s="78" t="s">
+      <c r="J12" s="69" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3297,7 +3277,7 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="85" t="s">
         <v>142</v>
       </c>
       <c r="F13" s="19"/>
@@ -3308,7 +3288,7 @@
       <c r="I13" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J13" s="78" t="s">
+      <c r="J13" s="69" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3325,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3335,7 +3315,7 @@
     <col min="2" max="2" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" style="5" bestFit="1" customWidth="1"/>
@@ -3396,13 +3376,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="28" t="s">
+      <c r="E3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -3411,7 +3391,7 @@
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="69" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3419,22 +3399,22 @@
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="F4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="40" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -3443,7 +3423,7 @@
       <c r="I4" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="69" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3460,7 +3440,7 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="74" t="s">
         <v>272</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -3475,7 +3455,7 @@
       <c r="I5" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="69" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3507,7 +3487,7 @@
       <c r="I6" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="69" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3524,7 +3504,7 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="74" t="s">
         <v>274</v>
       </c>
       <c r="F7" s="19" t="s">
@@ -3539,7 +3519,7 @@
       <c r="I7" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J7" s="78" t="s">
+      <c r="J7" s="69" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3571,7 +3551,7 @@
       <c r="I8" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="J8" s="78" t="s">
+      <c r="J8" s="69" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3603,7 +3583,7 @@
       <c r="I9" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J9" s="78" t="s">
+      <c r="J9" s="69" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3635,7 +3615,7 @@
       <c r="I10" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="69" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3652,7 +3632,7 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="74" t="s">
         <v>278</v>
       </c>
       <c r="F11" s="19" t="s">
@@ -3667,7 +3647,7 @@
       <c r="I11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="78" t="s">
+      <c r="J11" s="69" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3699,7 +3679,7 @@
       <c r="I12" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J12" s="78" t="s">
+      <c r="J12" s="69" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3746,7 +3726,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3816,20 +3796,20 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="44" t="s">
+      <c r="E3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="41" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="69" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3837,25 +3817,25 @@
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="85" t="s">
-        <v>315</v>
-      </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87"/>
+      <c r="C4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="69" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3872,20 +3852,20 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="66" t="s">
-        <v>304</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="70" t="s">
+      <c r="E5" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="62" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="69" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3902,20 +3882,20 @@
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="66" t="s">
-        <v>304</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="70" t="s">
+      <c r="E6" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="62" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="69" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3932,20 +3912,20 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="70" t="s">
+      <c r="F7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="62" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="78" t="s">
+      <c r="J7" s="69" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3962,20 +3942,20 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>298</v>
+      <c r="E8" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>320</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="J8" s="78" t="s">
+      <c r="J8" s="69" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3992,20 +3972,20 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="67" t="s">
-        <v>316</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="70" t="s">
+      <c r="E9" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="62" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
-      <c r="J9" s="78" t="s">
+      <c r="J9" s="69" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4022,20 +4002,20 @@
       <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G10" s="70" t="s">
-        <v>297</v>
+      <c r="E10" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>306</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="69" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4060,8 +4040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G21" sqref="A20:G21"/>
+    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4131,22 +4111,22 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="71" t="s">
+      <c r="E3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="69" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4154,85 +4134,87 @@
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="71" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" s="77"/>
+      <c r="G4" s="94" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="69" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="78" t="s">
+      <c r="E5" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="69" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="78" t="s">
+      <c r="E6" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="69" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4249,22 +4231,22 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="71" t="s">
+      <c r="E7" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="78" t="s">
+      <c r="J7" s="69" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4281,22 +4263,22 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="H8" s="71" t="s">
+      <c r="E8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="H8" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="78" t="s">
+      <c r="J8" s="69" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4313,22 +4295,22 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="H9" s="71" t="s">
+      <c r="E9" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="78" t="s">
+      <c r="J9" s="69" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4345,22 +4327,22 @@
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="30">
         <v>4326</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="71" t="s">
+      <c r="F10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="69" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4377,20 +4359,20 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="71" t="s">
+      <c r="E11" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="18"/>
-      <c r="J11" s="78" t="s">
+      <c r="J11" s="69" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4407,16 +4389,16 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="71" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="78" t="s">
+      <c r="J12" s="69" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4433,22 +4415,22 @@
       <c r="D13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="H13" s="71" t="s">
+      <c r="E13" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H13" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="78" t="s">
+      <c r="J13" s="69" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4465,22 +4447,22 @@
       <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="H14" s="71" t="s">
+      <c r="E14" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="H14" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="78" t="s">
+      <c r="J14" s="69" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4497,22 +4479,22 @@
       <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="H15" s="71" t="s">
+      <c r="E15" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>317</v>
+      </c>
+      <c r="H15" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="78" t="s">
+      <c r="J15" s="69" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4529,27 +4511,27 @@
       <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="H16" s="71" t="s">
+      <c r="E16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="H16" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I16" s="18">
         <v>-1067.700435</v>
       </c>
-      <c r="J16" s="78" t="s">
+      <c r="J16" s="69" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -4561,283 +4543,287 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="71" t="s">
+      <c r="E17" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="78" t="s">
+      <c r="J17" s="69" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="78" t="s">
+      <c r="E18" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="69" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+    <row r="19" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="88" t="s">
+      <c r="D19" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="74" t="s">
+      <c r="F19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="J19" s="78" t="s">
+      <c r="J19" s="69" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+    <row r="20" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="46" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G20" s="46" t="s">
+      <c r="D20" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" s="69" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G21" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="H20" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="J20" s="78" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="51" t="s">
+      <c r="H21" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="50">
+        <v>3703994</v>
+      </c>
+      <c r="J21" s="69" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="45" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G21" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="H21" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="58">
-        <v>3703994</v>
-      </c>
-      <c r="J21" s="78" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="49" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="51" t="s">
+      <c r="D22" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22" s="78" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="51" t="s">
+      <c r="D23" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G23" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="H23" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="69" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D24" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="58" t="s">
-        <v>311</v>
-      </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23" s="78" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="51" t="s">
+      <c r="E24" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" s="69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="J24" s="78" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="78" t="s">
+      <c r="D25" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="69" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4861,8 +4847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4873,7 +4859,7 @@
     <col min="4" max="4" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" style="5" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" style="5" customWidth="1"/>
     <col min="10" max="10" width="122.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -4915,203 +4901,203 @@
       <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="58">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="50">
         <v>50004</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="69" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="58">
+      <c r="E4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="50">
         <v>43</v>
       </c>
-      <c r="J4" s="78"/>
-    </row>
-    <row r="5" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="J4" s="69"/>
+    </row>
+    <row r="5" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="53" t="s">
+      <c r="C5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="58">
+      <c r="E5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="50">
         <v>1</v>
       </c>
-      <c r="J5" s="78"/>
-    </row>
-    <row r="6" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="J5" s="69"/>
+    </row>
+    <row r="6" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="58">
+      <c r="E6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="50">
         <v>39035</v>
       </c>
-      <c r="J6" s="78"/>
-    </row>
-    <row r="7" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+      <c r="J6" s="69"/>
+    </row>
+    <row r="7" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="53" t="s">
+      <c r="C7" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="58">
+      <c r="E7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="50">
         <v>63</v>
       </c>
-      <c r="J7" s="78" t="s">
+      <c r="J7" s="69" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="78"/>
-    </row>
-    <row r="9" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="C8" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="F8" s="75"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="69"/>
+    </row>
+    <row r="9" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="78" t="s">
+      <c r="C9" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="69" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5128,16 +5114,16 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="78" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="69" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5154,16 +5140,16 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="78" t="s">
+      <c r="E11" s="83"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="69" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5171,947 +5157,947 @@
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="78" t="s">
+      <c r="C12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="90"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="69" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="69" t="s">
+    <row r="13" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="58">
+      <c r="E13" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="50">
         <v>5363</v>
       </c>
-      <c r="J13" s="78" t="s">
+      <c r="J13" s="69" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69" t="s">
+    <row r="14" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="36" t="s">
+      <c r="E14" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="78" t="s">
+      <c r="J14" s="69" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+    <row r="15" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="36" t="s">
+      <c r="E15" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J15" s="78" t="s">
+      <c r="J15" s="69" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+    <row r="16" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="58" t="s">
+      <c r="E16" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="J16" s="78" t="s">
+      <c r="J16" s="69" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+    <row r="17" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="36" t="s">
+      <c r="E17" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="J17" s="78" t="s">
+      <c r="J17" s="69" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="36" t="s">
+      <c r="E18" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J18" s="78" t="s">
+      <c r="J18" s="69" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="78" t="s">
+      <c r="E19" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="69" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69" t="s">
+    <row r="20" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="36" t="s">
+      <c r="E20" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="18">
         <v>5200</v>
       </c>
-      <c r="J20" s="78" t="s">
+      <c r="J20" s="69" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="84" t="s">
-        <v>326</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H21" s="36" t="s">
+      <c r="E21" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="H21" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="18">
         <v>1</v>
       </c>
-      <c r="J21" s="78" t="s">
+      <c r="J21" s="69" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="H22" s="36" t="s">
+      <c r="E22" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="H22" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J22" s="78" t="s">
+      <c r="J22" s="69" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
+    <row r="23" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="H23" s="36" t="s">
+      <c r="D23" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="H23" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J23" s="78" t="s">
+      <c r="J23" s="69" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="H24" s="36" t="s">
+      <c r="E24" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="H24" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J24" s="78" t="s">
+      <c r="J24" s="69" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="47" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="H25" s="36" t="s">
+      <c r="E25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="H25" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="78" t="s">
+      <c r="J25" s="69" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="69" t="s">
+    <row r="26" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="61">
+      <c r="E26" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="53">
         <v>44196</v>
       </c>
-      <c r="J26" s="78" t="s">
+      <c r="J26" s="69" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="61">
+      <c r="E27" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="53">
         <v>43831</v>
       </c>
-      <c r="J27" s="78" t="s">
+      <c r="J27" s="69" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="H28" s="36" t="s">
+      <c r="E28" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="H28" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J28" s="78" t="s">
+      <c r="J28" s="69" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="84" t="s">
-        <v>326</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H29" s="36" t="s">
+      <c r="E29" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="H29" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I29" s="18">
         <v>0</v>
       </c>
-      <c r="J29" s="78" t="s">
+      <c r="J29" s="69" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="47" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="78" t="s">
+      <c r="E30" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G30" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="69" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="36" t="s">
+      <c r="E31" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J31" s="78" t="s">
+      <c r="J31" s="69" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="36" t="s">
+      <c r="E32" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="78" t="s">
+      <c r="J32" s="69" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="69" t="s">
+    <row r="33" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="36" t="s">
+      <c r="E33" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="78" t="s">
+      <c r="J33" s="69" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="62">
+      <c r="C34" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="54">
         <v>43874</v>
       </c>
-      <c r="J34" s="78" t="s">
+      <c r="J34" s="69" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="47" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="63">
+      <c r="E35" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="55">
         <v>33187</v>
       </c>
-      <c r="J35" s="78" t="s">
+      <c r="J35" s="69" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="47" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="78" t="s">
+      <c r="E36" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="34"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="69" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="78" t="s">
+      <c r="E37" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="69" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="84" t="s">
-        <v>292</v>
-      </c>
-      <c r="F38" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="G38" s="92" t="s">
-        <v>303</v>
-      </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="J38" s="78" t="s">
+      <c r="D38" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="H38" s="33"/>
+      <c r="I38" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="69" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="36" t="s">
+      <c r="E39" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J39" s="78" t="s">
+      <c r="J39" s="69" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="78" t="s">
+      <c r="E40" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="69" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49" t="s">
+    <row r="41" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="60" t="s">
+      <c r="E41" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="J41" s="78" t="s">
+      <c r="J41" s="69" t="s">
         <v>204</v>
       </c>
       <c r="K41" s="5"/>
@@ -6122,102 +6108,102 @@
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="90" t="s">
+      <c r="C42" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="84" t="s">
-        <v>292</v>
-      </c>
-      <c r="F42" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="G42" s="92" t="s">
-        <v>302</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="78" t="s">
+      <c r="D42" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G42" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="69" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="36" t="s">
+      <c r="E43" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J43" s="78"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-    </row>
-    <row r="44" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="69" t="s">
+      <c r="J43" s="69"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+    </row>
+    <row r="44" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="53" t="s">
+      <c r="D44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="58" t="s">
+      <c r="E44" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="J44" s="78" t="s">
+      <c r="J44" s="69" t="s">
         <v>211</v>
       </c>
       <c r="K44" s="5"/>
@@ -6228,93 +6214,93 @@
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="71"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="78" t="s">
+      <c r="E45" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="63"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="69" t="s">
+      <c r="A46" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="66" t="s">
-        <v>306</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="H46" s="36" t="s">
+      <c r="D46" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="F46" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="G46" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="H46" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="78" t="s">
+      <c r="J46" s="69" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="49"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="68"/>
+      <c r="A87" s="60"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P12">
@@ -6328,10 +6314,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6773719E-2D80-41C1-B344-647CDBD529AA}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6339,108 +6325,7 @@
     <col min="1" max="1" width="54.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/California/WaterAllocation/CAwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/California/WaterAllocation/CAwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\California\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F59DF4-3C88-4B97-A439-1E29AC42127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558BB335-4D36-47A0-BE60-824549D55851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="336">
   <si>
     <t>Name</t>
   </si>
@@ -897,9 +897,6 @@
     <t>we fill this</t>
   </si>
   <si>
-    <t>use this with application number:https://ciwqs.waterboards.ca.gov/ciwqs/ewrims/EWServlet?OWASP_CSRFTOKEN=2F29-W6H3-FM0Y-I9W5-P5G3-W5MG-VN8J-1DL2&amp;Page_From=EWWaterRightPublicSearch.jsp&amp;Redirect_Page=EWWaterRightPublicSearchResults.jsp&amp;Object_Expected=EwrimsSearchResult&amp;Object_Created=EwrimsSearch&amp;Object_Criteria=&amp;Purpose=&amp;subTypeCourtAdjSpec=&amp;subTypeOtherSpec=&amp;appNumber=T032025</t>
-  </si>
-  <si>
     <t>get from watersource.csv</t>
   </si>
   <si>
@@ -1044,7 +1041,13 @@
     <t>APPLICATION_RECD_DATE</t>
   </si>
   <si>
-    <t>The native url they suggested we use is too long for our system.  Will temp fix and remove fo rnow.</t>
+    <t>https://ciwqs.waterboards.ca.gov/ciwqs/ewrims/EWServlet?Redirect_Page=EWPublicAppSummary.jsp&amp;Purpose=getEwrimsPublicSummary&amp;wrWaterRightID=91469</t>
+  </si>
+  <si>
+    <t>As a temp fix to missing priroity date info, we will make those specific records "excempt".</t>
+  </si>
+  <si>
+    <t>1 if missing priroity date</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1057,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,6 +1284,21 @@
     <font>
       <u/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2015,9 +2033,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2044,12 +2059,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2079,11 +2088,18 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2444,7 +2460,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2492,72 +2508,74 @@
         <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>304</v>
+      <c r="B5" s="89" t="s">
+        <v>303</v>
       </c>
       <c r="C5" s="73"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="72"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="73"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6" s="73"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="C7" s="73"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C8" s="73"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C9" s="73"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="73"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
         <v>334</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>282</v>
+      </c>
+    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
-        <v>310</v>
+      <c r="B16" s="93" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2573,7 +2591,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2675,11 +2693,11 @@
       <c r="D4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="95" t="s">
-        <v>291</v>
-      </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="94"/>
+      <c r="E4" s="92" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="76"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
@@ -2704,7 +2722,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="62"/>
@@ -2816,7 +2834,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F9" s="58"/>
       <c r="G9" s="62"/>
@@ -2842,7 +2860,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="62"/>
@@ -2856,7 +2874,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2869,8 +2887,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="96" t="s">
-        <v>295</v>
+      <c r="E11" s="97" t="s">
+        <v>294</v>
       </c>
       <c r="F11" s="58"/>
       <c r="G11" s="62"/>
@@ -2898,7 +2916,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F12" s="58"/>
       <c r="G12" s="62"/>
@@ -2929,7 +2947,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3025,11 +3043,11 @@
       <c r="D4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="84" t="s">
-        <v>297</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="E4" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="76"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
@@ -3053,11 +3071,11 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="95">
         <v>1</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
@@ -3081,11 +3099,11 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
@@ -3109,11 +3127,11 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
@@ -3137,11 +3155,11 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="85" t="s">
-        <v>298</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="E8" s="95" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" s="58"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
@@ -3165,11 +3183,11 @@
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="85" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="E9" s="95" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
@@ -3193,11 +3211,11 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="95">
         <v>11</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
@@ -3221,11 +3239,11 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
@@ -3249,11 +3267,11 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
@@ -3277,11 +3295,11 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="9" t="s">
         <v>38</v>
       </c>
@@ -3306,7 +3324,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3427,7 +3445,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
@@ -3440,7 +3458,7 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="96" t="s">
         <v>272</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -3491,7 +3509,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
@@ -3504,7 +3522,7 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="96" t="s">
         <v>274</v>
       </c>
       <c r="F7" s="19" t="s">
@@ -3587,7 +3605,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="96" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="84" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -3619,7 +3637,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -3632,7 +3650,7 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="96" t="s">
         <v>278</v>
       </c>
       <c r="F11" s="19" t="s">
@@ -3826,11 +3844,11 @@
       <c r="D4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="76" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
+      <c r="E4" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
       <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
         <v>114</v>
@@ -3946,10 +3964,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G8" s="62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
@@ -3973,7 +3991,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F9" s="58" t="s">
         <v>38</v>
@@ -4006,10 +4024,10 @@
         <v>38</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G10" s="62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
@@ -4040,7 +4058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -4141,12 +4159,12 @@
       <c r="D4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="76" t="s">
-        <v>332</v>
-      </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="94" t="s">
-        <v>309</v>
+      <c r="E4" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="76"/>
+      <c r="G4" s="91" t="s">
+        <v>308</v>
       </c>
       <c r="H4" s="63" t="s">
         <v>38</v>
@@ -4204,7 +4222,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="42"/>
@@ -4267,10 +4285,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>38</v>
@@ -4299,10 +4317,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H9" s="63" t="s">
         <v>38</v>
@@ -4419,10 +4437,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H13" s="63" t="s">
         <v>38</v>
@@ -4451,10 +4469,10 @@
         <v>38</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H14" s="63" t="s">
         <v>38</v>
@@ -4483,10 +4501,10 @@
         <v>38</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G15" s="62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H15" s="63" t="s">
         <v>38</v>
@@ -4515,10 +4533,10 @@
         <v>38</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G16" s="62" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H16" s="63" t="s">
         <v>38</v>
@@ -4607,7 +4625,7 @@
       <c r="D19" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="79" t="s">
+      <c r="E19" s="78" t="s">
         <v>162</v>
       </c>
       <c r="F19" s="30" t="s">
@@ -4640,13 +4658,13 @@
         <v>38</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H20" s="63" t="s">
         <v>38</v>
@@ -4675,10 +4693,10 @@
         <v>38</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G21" s="62" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H21" s="63" t="s">
         <v>38</v>
@@ -4739,10 +4757,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G23" s="66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H23" s="63" t="s">
         <v>38</v>
@@ -4768,7 +4786,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>38</v>
@@ -4847,8 +4865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5067,10 +5085,10 @@
         <v>38</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>332</v>
-      </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="87"/>
+        <v>331</v>
+      </c>
+      <c r="F8" s="74"/>
+      <c r="G8" s="84"/>
       <c r="H8" s="34"/>
       <c r="I8" s="51"/>
       <c r="J8" s="69"/>
@@ -5088,9 +5106,9 @@
       <c r="D9" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="87"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="84"/>
       <c r="H9" s="34" t="s">
         <v>38</v>
       </c>
@@ -5114,9 +5132,9 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="87"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="84"/>
       <c r="H10" s="34" t="s">
         <v>38</v>
       </c>
@@ -5140,9 +5158,9 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="87"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="34" t="s">
         <v>38</v>
       </c>
@@ -5166,9 +5184,9 @@
       <c r="D12" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="91"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="34" t="s">
         <v>38</v>
       </c>
@@ -5199,7 +5217,7 @@
         <v>279</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H13" s="34" t="s">
         <v>38</v>
@@ -5449,13 +5467,13 @@
         <v>38</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G21" s="62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>38</v>
@@ -5480,14 +5498,14 @@
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="93" t="s">
+      <c r="E22" s="90" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>38</v>
@@ -5516,10 +5534,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G23" s="62" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H23" s="34" t="s">
         <v>38</v>
@@ -5548,10 +5566,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="G24" s="62" t="s">
         <v>307</v>
-      </c>
-      <c r="G24" s="62" t="s">
-        <v>308</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>38</v>
@@ -5580,10 +5598,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G25" s="62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>38</v>
@@ -5615,7 +5633,7 @@
         <v>279</v>
       </c>
       <c r="G26" s="62" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>38</v>
@@ -5647,7 +5665,7 @@
         <v>279</v>
       </c>
       <c r="G27" s="62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>38</v>
@@ -5676,10 +5694,10 @@
         <v>38</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G28" s="62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H28" s="34" t="s">
         <v>38</v>
@@ -5705,13 +5723,13 @@
         <v>38</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>38</v>
@@ -5740,10 +5758,10 @@
         <v>38</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G30" s="62" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>38</v>
@@ -5929,7 +5947,7 @@
         <v>38</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>38</v>
@@ -5976,26 +5994,26 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="82" t="s">
+      <c r="D38" s="81" t="s">
         <v>38</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>280</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G38" s="62" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="52" t="s">
@@ -6108,26 +6126,26 @@
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A42" s="80" t="s">
+      <c r="A42" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="81" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="30" t="s">
         <v>280</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G42" s="62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>38</v>
@@ -6247,32 +6265,32 @@
       <c r="O45" s="45"/>
       <c r="P45" s="45"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="80" t="s">
+    <row r="46" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="81" t="s">
+      <c r="C46" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="F46" s="75" t="s">
+      <c r="D46" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="94" t="s">
+        <v>333</v>
+      </c>
+      <c r="F46" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="G46" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="H46" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="18" t="s">
+      <c r="G46" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="H46" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="50" t="s">
         <v>131</v>
       </c>
       <c r="J46" s="69" t="s">
@@ -6307,8 +6325,11 @@
     <sortCondition ref="A9:A12"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E46" r:id="rId1" xr:uid="{4B318984-F278-48A0-A852-C43B5311D625}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6317,7 +6338,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
